--- a/src/test/resources/PluginFeatureTestTemplate.xlsx
+++ b/src/test/resources/PluginFeatureTestTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9675"/>
+    <workbookView windowWidth="23145" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>自定义插件功能测试</t>
   </si>
@@ -53,13 +53,22 @@
     <t xml:space="preserve">#foreach item in ${productList} </t>
   </si>
   <si>
-    <t>${item.name}</t>
+    <t>#if currentRowNo%2==0</t>
+  </si>
+  <si>
+    <t>测试: ${item.name}</t>
   </si>
   <si>
     <t xml:space="preserve">#qrcode ${item.name} </t>
   </si>
   <si>
     <t>#comment 测试</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>#else</t>
   </si>
   <si>
     <t>#end</t>
@@ -246,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -570,7 +585,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,16 +609,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -612,91 +627,92 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常規" xfId="0" builtinId="0"/>
@@ -1016,15 +1032,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1061,25 +1078,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/PluginFeatureTestTemplate.xlsx
+++ b/src/test/resources/PluginFeatureTestTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>自定义插件功能测试</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>#log 模板处理结束</t>
+  </si>
+  <si>
+    <t>#chartFromData title='产品价格分析图 (数据驱动)' categories='productList.![name]' values='productList.![price]' series_name='价格' anchor='A15:H30'</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1131,6 +1134,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
